--- a/gears_db/data/outputs/emissions_nigeria_2021.xlsx
+++ b/gears_db/data/outputs/emissions_nigeria_2021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
   <si>
     <t xml:space="preserve">Area</t>
   </si>
@@ -878,24 +878,33 @@
     <t xml:space="preserve">Agriculture - Enteric fermentation (Emissions CH4)</t>
   </si>
   <si>
-    <t xml:space="preserve">3.A.2</t>
+    <t xml:space="preserve">3.A.2.a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture - Emissions (N2O) (Manure applied)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.A.2.b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture - Manure management (Emissions N2O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.A.2.c</t>
   </si>
   <si>
     <t xml:space="preserve">Agriculture - Manure management (Emissions CH4)</t>
   </si>
   <si>
-    <t xml:space="preserve">Agriculture - Manure management (Emissions N2O)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture - Emissions (N2O) (Manure applied)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.B.1</t>
+    <t xml:space="preserve">3.B.1.a</t>
   </si>
   <si>
     <t xml:space="preserve">LULUCF - Forestland</t>
   </si>
   <si>
+    <t xml:space="preserve">3.B.1.b</t>
+  </si>
+  <si>
     <t xml:space="preserve">LULUCF - Net Forest conversion</t>
   </si>
   <si>
@@ -905,22 +914,31 @@
     <t xml:space="preserve">LULUCF - Drained organic soils (CO2)</t>
   </si>
   <si>
-    <t xml:space="preserve">3.B.6</t>
+    <t xml:space="preserve">3.B.6.a</t>
   </si>
   <si>
     <t xml:space="preserve">LULUCF - Fires in organic soils</t>
   </si>
   <si>
+    <t xml:space="preserve">3.B.6.b</t>
+  </si>
+  <si>
     <t xml:space="preserve">LULUCF - Forest fires</t>
   </si>
   <si>
-    <t xml:space="preserve">3.C.1</t>
+    <t xml:space="preserve">3.C.1.a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture - Burning crop residues (Emissions CH4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.C.1.b</t>
   </si>
   <si>
     <t xml:space="preserve">Agriculture - Burning crop residues (Emissions N2O)</t>
   </si>
   <si>
-    <t xml:space="preserve">Agriculture - Burning crop residues (Emissions CH4)</t>
+    <t xml:space="preserve">3.C.1.c</t>
   </si>
   <si>
     <t xml:space="preserve">Agriculture - Savanna fires</t>
@@ -944,7 +962,7 @@
     <t xml:space="preserve">Agriculture - Manure left on pasture (Emissions N2O)</t>
   </si>
   <si>
-    <t xml:space="preserve">3.C.7.</t>
+    <t xml:space="preserve">3.C.7</t>
   </si>
   <si>
     <t xml:space="preserve">Agriculture - Rice cultivation (Emissions CH4)</t>
@@ -980,7 +998,7 @@
     <t xml:space="preserve">Indirect N2O emissions from the atmospheric deposition of nitrogen in NOx and NH3</t>
   </si>
   <si>
-    <t xml:space="preserve">9.A.</t>
+    <t xml:space="preserve">9.A</t>
   </si>
   <si>
     <t xml:space="preserve">Animal Stocks</t>
@@ -15303,7 +15321,7 @@
         <v>289</v>
       </c>
       <c r="F54" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G54" t="s">
         <v>240</v>
@@ -15335,22 +15353,22 @@
       <c r="AF54"/>
       <c r="AG54"/>
       <c r="AH54" t="n">
-        <v>62.02</v>
+        <v>68.211</v>
       </c>
       <c r="AI54" t="n">
-        <v>519.3776</v>
+        <v>70.066</v>
       </c>
       <c r="AJ54" t="n">
-        <v>71.54</v>
+        <v>52.046</v>
       </c>
       <c r="AK54" t="n">
-        <v>63.1288</v>
+        <v>68.476</v>
       </c>
       <c r="AL54" t="n">
-        <v>805.7196</v>
+        <v>220.4535</v>
       </c>
       <c r="AM54" t="n">
-        <v>333.3484</v>
+        <v>786.679</v>
       </c>
       <c r="AN54"/>
       <c r="AO54"/>
@@ -15548,7 +15566,7 @@
       <c r="HY54"/>
       <c r="HZ54"/>
       <c r="IA54" t="n">
-        <v>1855.1344</v>
+        <v>1265.9315</v>
       </c>
     </row>
     <row r="55">
@@ -15562,10 +15580,10 @@
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F55" t="s">
         <v>242</v>
@@ -15827,13 +15845,13 @@
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E56" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G56" t="s">
         <v>240</v>
@@ -15865,22 +15883,22 @@
       <c r="AF56"/>
       <c r="AG56"/>
       <c r="AH56" t="n">
-        <v>68.211</v>
+        <v>62.02</v>
       </c>
       <c r="AI56" t="n">
-        <v>70.066</v>
+        <v>519.3776</v>
       </c>
       <c r="AJ56" t="n">
-        <v>52.046</v>
+        <v>71.54</v>
       </c>
       <c r="AK56" t="n">
-        <v>68.476</v>
+        <v>63.1288</v>
       </c>
       <c r="AL56" t="n">
-        <v>220.4535</v>
+        <v>805.7196</v>
       </c>
       <c r="AM56" t="n">
-        <v>786.679</v>
+        <v>333.3484</v>
       </c>
       <c r="AN56"/>
       <c r="AO56"/>
@@ -16078,7 +16096,7 @@
       <c r="HY56"/>
       <c r="HZ56"/>
       <c r="IA56" t="n">
-        <v>1265.9315</v>
+        <v>1855.1344</v>
       </c>
     </row>
     <row r="57">
@@ -16092,10 +16110,10 @@
         <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E57" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F57" t="s">
         <v>239</v>
@@ -16347,10 +16365,10 @@
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E58" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F58" t="s">
         <v>239</v>
@@ -16602,10 +16620,10 @@
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E59" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F59" t="s">
         <v>239</v>
@@ -16857,10 +16875,10 @@
         <v>2021</v>
       </c>
       <c r="D60" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E60" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F60" t="s">
         <v>239</v>
@@ -17112,10 +17130,10 @@
         <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E61" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F61" t="s">
         <v>241</v>
@@ -17367,10 +17385,10 @@
         <v>2021</v>
       </c>
       <c r="D62" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E62" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F62" t="s">
         <v>241</v>
@@ -17604,11 +17622,11 @@
       <c r="HW62"/>
       <c r="HX62"/>
       <c r="HY62" t="n">
-        <v>338.7832</v>
+        <v>169.3916</v>
       </c>
       <c r="HZ62"/>
       <c r="IA62" t="n">
-        <v>338.7832</v>
+        <v>169.3916</v>
       </c>
     </row>
     <row r="63">
@@ -17622,10 +17640,10 @@
         <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E63" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F63" t="s">
         <v>242</v>
@@ -17859,11 +17877,11 @@
       <c r="HW63"/>
       <c r="HX63"/>
       <c r="HY63" t="n">
-        <v>292.772</v>
+        <v>146.386</v>
       </c>
       <c r="HZ63"/>
       <c r="IA63" t="n">
-        <v>292.772</v>
+        <v>146.386</v>
       </c>
     </row>
     <row r="64">
@@ -17877,26 +17895,26 @@
         <v>2021</v>
       </c>
       <c r="D64" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E64" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G64" t="s">
         <v>240</v>
       </c>
       <c r="H64" t="n">
-        <v>115.116</v>
+        <v>469.1204</v>
       </c>
       <c r="I64"/>
       <c r="J64" t="n">
-        <v>44.0695</v>
+        <v>179.6284</v>
       </c>
       <c r="K64" t="n">
-        <v>0.583</v>
+        <v>2.4192</v>
       </c>
       <c r="L64"/>
       <c r="M64"/>
@@ -17909,7 +17927,7 @@
       <c r="T64"/>
       <c r="U64"/>
       <c r="V64" t="n">
-        <v>1.06</v>
+        <v>4.2784</v>
       </c>
       <c r="W64"/>
       <c r="X64"/>
@@ -18124,7 +18142,7 @@
       <c r="HY64"/>
       <c r="HZ64"/>
       <c r="IA64" t="n">
-        <v>160.8285</v>
+        <v>655.4464</v>
       </c>
     </row>
     <row r="65">
@@ -18138,26 +18156,26 @@
         <v>2021</v>
       </c>
       <c r="D65" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E65" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F65" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G65" t="s">
         <v>240</v>
       </c>
       <c r="H65" t="n">
-        <v>469.1204</v>
+        <v>115.116</v>
       </c>
       <c r="I65"/>
       <c r="J65" t="n">
-        <v>179.6284</v>
+        <v>44.0695</v>
       </c>
       <c r="K65" t="n">
-        <v>2.4192</v>
+        <v>0.583</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
@@ -18170,7 +18188,7 @@
       <c r="T65"/>
       <c r="U65"/>
       <c r="V65" t="n">
-        <v>4.2784</v>
+        <v>1.06</v>
       </c>
       <c r="W65"/>
       <c r="X65"/>
@@ -18385,7 +18403,7 @@
       <c r="HY65"/>
       <c r="HZ65"/>
       <c r="IA65" t="n">
-        <v>655.4464</v>
+        <v>160.8285</v>
       </c>
     </row>
     <row r="66">
@@ -18399,10 +18417,10 @@
         <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E66" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F66" t="s">
         <v>241</v>
@@ -18637,10 +18655,10 @@
       <c r="HX66"/>
       <c r="HY66"/>
       <c r="HZ66" t="n">
-        <v>2838.2312</v>
+        <v>1419.1156</v>
       </c>
       <c r="IA66" t="n">
-        <v>2838.2312</v>
+        <v>1419.1156</v>
       </c>
     </row>
     <row r="67">
@@ -18654,10 +18672,10 @@
         <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E67" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F67" t="s">
         <v>242</v>
@@ -18892,10 +18910,10 @@
       <c r="HX67"/>
       <c r="HY67"/>
       <c r="HZ67" t="n">
-        <v>2452.575</v>
+        <v>1226.2875</v>
       </c>
       <c r="IA67" t="n">
-        <v>2452.575</v>
+        <v>1226.2875</v>
       </c>
     </row>
     <row r="68">
@@ -18909,10 +18927,10 @@
         <v>2021</v>
       </c>
       <c r="D68" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E68" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F68" t="s">
         <v>242</v>
@@ -19164,10 +19182,10 @@
         <v>2021</v>
       </c>
       <c r="D69" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E69" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F69" t="s">
         <v>242</v>
@@ -19419,10 +19437,10 @@
         <v>2021</v>
       </c>
       <c r="D70" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E70" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F70" t="s">
         <v>242</v>
@@ -19684,10 +19702,10 @@
         <v>2021</v>
       </c>
       <c r="D71" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E71" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F71" t="s">
         <v>241</v>
@@ -19939,10 +19957,10 @@
         <v>2021</v>
       </c>
       <c r="D72" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E72" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F72" t="s">
         <v>242</v>
@@ -20206,10 +20224,10 @@
         <v>2021</v>
       </c>
       <c r="D73" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E73" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F73" t="s">
         <v>241</v>
@@ -20461,10 +20479,10 @@
         <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E74" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F74" t="s">
         <v>241</v>
@@ -20716,10 +20734,10 @@
         <v>2021</v>
       </c>
       <c r="D75" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E75" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F75" t="s">
         <v>241</v>
@@ -20971,10 +20989,10 @@
         <v>2021</v>
       </c>
       <c r="D76" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E76" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F76" t="s">
         <v>242</v>
@@ -21226,10 +21244,10 @@
         <v>2021</v>
       </c>
       <c r="D77" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E77" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F77" t="s">
         <v>242</v>
@@ -21481,16 +21499,16 @@
         <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E78" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F78" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G78" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
